--- a/GBT.xlsx
+++ b/GBT.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="51">
   <si>
     <t>RuleType</t>
   </si>

--- a/GBT.xlsx
+++ b/GBT.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="51">
   <si>
     <t>RuleType</t>
   </si>

--- a/GBT.xlsx
+++ b/GBT.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="51">
   <si>
     <t>RuleType</t>
   </si>
